--- a/medicine/Psychotrope/Baltika/Baltika.xlsx
+++ b/medicine/Psychotrope/Baltika/Baltika.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Baltika est une marque de bière et une entreprise brassicole russe, leader sur le marché de la bière en Russie avec plus de 37 % de part de marché[1]. Fondée en 1990, elle est située à Saint-Pétersbourg.
+Baltika est une marque de bière et une entreprise brassicole russe, leader sur le marché de la bière en Russie avec plus de 37 % de part de marché. Fondée en 1990, elle est située à Saint-Pétersbourg.
 La marque Baltique est une des deux marques russes (derrière Lukoil) à être entrée sur la liste des 100 plus grandes marques commerciales au monde, établie en avril 2007 par le journal britannique Financial Times. Elle est possédée par Carlsberg jusqu'en 2023.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Profil</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leader sur le marché de la bière en Russie : 
 Elle fait partie des plus grandes brasseries européennes.
@@ -551,7 +565,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Baltika a été construite selon le projet de l'institut Gipropichtcheprom-2.
 La construction de la nouvelle usine a commencé en 1978. L'entreprise publique, la Baltika Breweries a été fondée en 1990 juste après l'achèvement de la construction
@@ -561,7 +577,7 @@
 Grâce à la réalisation du programme de reconstruction Baltika est devenue la première brasserie de Russie, équipé des matériels européens dernier cri. L'expansion régionale de l'entreprise commença en 1997, lorsque le holding a été créé et que le bloc de contrôle de l'usine Donskoe pivo à Rostov-sur-Don a été acquis. En octobre 2000, l'entreprise Baltika a pris le contrôle de l'usine Toulskoe pivo. À ce moment-là, les départements de l'entreprise Baltika ont élaboré un programme d'investissements, destiné à l'augmentation des capacités des usines acquises et le remplacement de l'équipement obsolète.
 En 2005, l'entreprise a vendu 22,7 millions d’hectolitres de bière.
 En novembre 2006 Baltika a présenté son nouveau grand projet d'investissements, c'est-à-dire la construction en Sibérie orientale d'une brasserie Baltika, qui deviendra la onzième en Russie. Le projet s'évalue à 65 millions d'euros. La construction sera financée par l'entreprise et est prévue pour 2008. Il est prévu qu'elle produise 2 millions d’hectolitres par an.
-En juillet 2023, en raison de l'invasion de l'Ukraine par la Russie, l'État russe prend le contrôle d’actifs en Russie de Carlsberg, la marque Baltika passe dans le giron de l'état russe[2].
+En juillet 2023, en raison de l'invasion de l'Ukraine par la Russie, l'État russe prend le contrôle d’actifs en Russie de Carlsberg, la marque Baltika passe dans le giron de l'état russe.
 </t>
         </is>
       </c>
@@ -592,8 +608,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Les bières Baltika
-Baltika nº0 « Sans alcool » (pas plus de 0,5 % d'alcool en volume)
+          <t>Les bières Baltika</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Baltika nº0 « Sans alcool » (pas plus de 0,5 % d'alcool en volume)
 Baltika nº2 « Svetloe » (claire) (pas moins de 4,7 % d'alcool en volume)
 Baltika nº3 « Classique » (pas moins de 4,8 % d'alcool en volume)
 Baltika nº4 « Originalnoe » (originale) (pas moins de 5,6 % d'alcool en volume)
@@ -604,16 +625,84 @@
 Baltika nº9 « Krepkoe » (forte) (pas moins de 8,0 % d'alcool en volume)
 Baltika Kuler (pas moins de 4,7 % d'alcool en volume)
 Baltika Lite (pas moins de 4 % d'alcool en volume)
-Baltika Neon (4,5 % d'alcool en volume)
-Les bières Iarpivo
-La marque Iarpivo est sortie sur le marché en 1998 à Iaroslavl. Aujourd'hui, la bière est présentée sous cinq formes, fabriquées dans les usines à Tcheliabinsk, Voronej, Saint-Pétersbourg, Toula, Khabarovsk, Samara :
+Baltika Neon (4,5 % d'alcool en volume)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltika</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les bières Iarpivo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La marque Iarpivo est sortie sur le marché en 1998 à Iaroslavl. Aujourd'hui, la bière est présentée sous cinq formes, fabriquées dans les usines à Tcheliabinsk, Voronej, Saint-Pétersbourg, Toula, Khabarovsk, Samara :
 Iarpivo Yantarnoe (pas moins de 5,3 % d'alcool en volume)
 Iarpivo Krepkoe (pas moins de 7,2 % d'alcool en volume)
 Iarpivo Ledianoe (pas moins de 4,9 % d'alcool en volume)
 Iarpivo Originalnoe (pas moins de 4,7 % d'alcool en volume)
-Iarpivo Svetloe (pas moins de 4,2 % d'alcool en volume)
-Les bières Arsenalnoe
-La production de la bière Arsenalnoe a débuté en 2000 à Toula. La marque compte aujourd'hui quatre sortes de bières :
+Iarpivo Svetloe (pas moins de 4,2 % d'alcool en volume)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baltika</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltika</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les bières Arsenalnoe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La production de la bière Arsenalnoe a débuté en 2000 à Toula. La marque compte aujourd'hui quatre sortes de bières :
 Arsenalnoe Traditsionnoe (pas moins de 5,1 % d'alcool en volume)
 Arsenalnoe Krepkoe (pas moins de 7 % d'alcool en volume)
 Arsenalnoe Zakalennoe (pas moins de 7 % d'alcool en volume)
